--- a/Kernel_Upgrade_to_4.18-CentOS8_Analysis_2019-10-31.xlsx
+++ b/Kernel_Upgrade_to_4.18-CentOS8_Analysis_2019-10-31.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="3834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="3835">
   <si>
     <t>aether-spi-1.13.1-13.el7.noarch.rpm</t>
   </si>
@@ -13490,10 +13490,6 @@
     </r>
   </si>
   <si>
-    <t>1.From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
-2. Note: only rh7-3.10.0-693.17.1.el7-based kernels are affected.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> From: "Martin, Chen" &lt;haochuan.z.chen@intel.com&gt;
  1, fix improper call of part_round_stats and part_inc_in_flight
  in drbd_req.c, as CONFIG_BLK_DEV_DRBD=m defined in
@@ -13513,23 +13509,6 @@
   <si>
     <t>1.From Chris Friesen &lt;chris.friesen@windriver.com&gt;
 2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.From: Chris Friesen &lt;chris.friesen@windriver.com&gt; starlingx member
-2. this is based off of Christoph Lameter's patch at
-https://lwn.net/Articles/565932/ with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the only difference being the kernel parameter changed from kthread to kthread_cpus.</t>
-    </r>
   </si>
   <si>
     <t>1. From: Dahir Osman &lt;dahir.osman@windriver.com&gt;
@@ -13586,10 +13565,6 @@
     <t>1. From: Jim Somerville &lt;Jim.Somerville@windriver.com&gt;
 starlingx member
 2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <t>1. From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
-2. Note: only rh7-3.10.0-693.17.1.el7-based kernels are affected.</t>
   </si>
   <si>
     <r>
@@ -13629,12 +13604,97 @@
  RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.From: Chris Friesen &lt;chris.friesen@windriver.com&gt; starlingx member
+2. this is based off of Christoph Lameter's patch at
+https://lwn.net/Articles/565932/ with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the only difference being the kernel parameter changed from kthread to kthread_cpus.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.StarlingX fix issue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: only rh7-3.10.0-693.17.1.el7-based kernels are affected.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.fs/ext4/acl.c,ext4_acl_chmod() function does not exist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
+2. Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">only rh7-3.10.0-693.17.1.el7-based kernels are affected.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.fs/ext4/acl.c,ext4_xattr_set_acl() function does not exist.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.v4.18 /drivers/block/drbd/drbd_req.c generic_start_io_acct() function fixes this patch.
+2.generic_start_io_acct function file locates in /block/bio.c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13826,8 +13886,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13915,12 +13981,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14527,9 +14587,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14580,6 +14637,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14899,46 +14959,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="101" t="s">
         <v>3686</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1">
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="103"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>2845</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="106" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="111"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="108"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="109"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="20">
@@ -28455,46 +28515,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" ht="14.4">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="101" t="s">
         <v>3687</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1">
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="103"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="2:5" ht="14.4">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>2845</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="106" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.4">
-      <c r="B6" s="111"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="108"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="109"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="30">
@@ -42683,46 +42743,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" ht="14.4">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="101" t="s">
         <v>3688</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1">
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="103"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="2:5" ht="14.4">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="103" t="s">
         <v>2848</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="106" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.4">
-      <c r="B6" s="111"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="108"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="109"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="30">
@@ -43775,9 +43835,9 @@
   </sheetPr>
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43800,7 +43860,7 @@
       <c r="D2" s="36" t="s">
         <v>3558</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="114" t="s">
         <v>3804</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -43812,14 +43872,14 @@
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1"/>
     <row r="4" spans="2:7">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="111" t="s">
         <v>3561</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="74"/>
@@ -43861,7 +43921,7 @@
         <v>3803</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="G7" s="76" t="s">
         <v>3689</v>
@@ -43899,7 +43959,7 @@
         <v>3802</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="G9" s="76" t="s">
         <v>3689</v>
@@ -43919,7 +43979,7 @@
         <v>3806</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>3825</v>
+        <v>3831</v>
       </c>
       <c r="G10" s="76" t="s">
         <v>3689</v>
@@ -43939,7 +43999,7 @@
         <v>3807</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="G11" s="76" t="s">
         <v>3689</v>
@@ -43959,7 +44019,7 @@
         <v>3808</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="G12" s="76" t="s">
         <v>3689</v>
@@ -43979,7 +44039,7 @@
         <v>3809</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>3689</v>
@@ -44235,7 +44295,7 @@
         <v>3811</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="G27" s="76" t="s">
         <v>3689</v>
@@ -44255,7 +44315,7 @@
         <v>3813</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="G28" s="76" t="s">
         <v>3689</v>
@@ -44311,7 +44371,7 @@
         <v>3814</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="G31" s="76" t="s">
         <v>3689</v>
@@ -44368,7 +44428,7 @@
         <v>3801</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="F34" s="69" t="s">
         <v>3832</v>
@@ -44391,7 +44451,7 @@
         <v>3819</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>3820</v>
+        <v>3833</v>
       </c>
       <c r="G35" s="76" t="s">
         <v>3689</v>
@@ -44419,16 +44479,18 @@
       <c r="B37" s="77" t="s">
         <v>3586</v>
       </c>
-      <c r="C37" s="97" t="s">
-        <v>2897</v>
+      <c r="C37" s="78" t="s">
+        <v>3563</v>
       </c>
       <c r="D37" s="68" t="s">
         <v>3801</v>
       </c>
       <c r="E37" s="92" t="s">
-        <v>3821</v>
-      </c>
-      <c r="F37" s="72"/>
+        <v>3820</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>3834</v>
+      </c>
       <c r="G37" s="76" t="s">
         <v>3689</v>
       </c>
@@ -44444,10 +44506,10 @@
         <v>3801</v>
       </c>
       <c r="E38" s="92" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F38" s="69" t="s">
         <v>3822</v>
-      </c>
-      <c r="F38" s="69" t="s">
-        <v>3823</v>
       </c>
       <c r="G38" s="76" t="s">
         <v>3689</v>

--- a/Kernel_Upgrade_to_4.18-CentOS8_Analysis_2019-10-31.xlsx
+++ b/Kernel_Upgrade_to_4.18-CentOS8_Analysis_2019-10-31.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="3835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="3836">
   <si>
     <t>aether-spi-1.13.1-13.el7.noarch.rpm</t>
   </si>
@@ -13366,6 +13366,186 @@
  - modification to ima_file_check to pass in file OPEN status</t>
   </si>
   <si>
+    <t xml:space="preserve"> From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
+ Normally (if trusted integrity keyring is disabled), the _ima keyring
+ needs to be created by user space (specifically systemd), but that has
+ the added disadvantage of requiring the IMA public key to reside on the
+ file system as opposed to being compiled in. Somebody could render some
+ serious Grade A damage by corrupting this public key on the FS.
+ Crippling the system if IMA 'enforce' action is enabled.
+ We will therefore create the IMA keyring inside the kernel and load the
+ IMA public key as a compiled data blob, similar to how the Kernel loads
+ trusted X509 keys into the system truststore (.system_keyring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From: Jim Somerville &lt;Jim.Somerville@windriver.com&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From: Konstantin Khlebnikov &lt;koct9i@gmail.com&gt;
+ This fixes use-after-free of epi-&gt;fllink.next inside list loop macro.
+ This loop actually releases elements in the body.  The list is
+ rcu-protected but here we cannot hold rcu_read_lock because we need to
+ lock mutex inside.
+  The obvious solution is to use list_for_each_entry_safe().  RCU-ness
+ isn't essential because nobody can change this list under us, it's final
+ fput for this file.
+ The bug was introduced by ae10b2b4eb01 ("epoll: optimize EPOLL_CTL_DEL
+ using rcu")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From: Tommi Rantala &lt;tt.rantala@gmail.com&gt;
+ Fix memory leak introduced in commit a0840e2e165a ("IPVS: netns,
+ ip_vs_ctl local vars moved to ipvs struct."):
+ unreferenced object 0xffff88005785b800 (size 2048):
+   comm "(-localed)", pid 1434, jiffies 4294755650 (age 1421.089s)
+   hex dump (first 32 bytes):
+     bb 89 0b 83 ff ff ff ff b0 78 f0 4e 00 88 ff ff  .........x.N....
+     04 00 00 00 a4 01 00 00 00 00 00 00 00 00 00 00  ................
+   backtrace:
+    [&lt;ffffffff8262ea8e&gt;] kmemleak_alloc+0x4e/0xb0
+     [&lt;ffffffff811fba74&gt;] __kmalloc_track_caller+0x244/0x430
+     [&lt;ffffffff811b88a0&gt;] kmemdup+0x20/0x50
+     [&lt;ffffffff823276b7&gt;] ip_vs_control_net_init+0x1f7/0x510
+     [&lt;ffffffff8231d630&gt;] __ip_vs_init+0x100/0x250
+     [&lt;ffffffff822363a1&gt;] ops_init+0x41/0x190
+     [&lt;ffffffff82236583&gt;] setup_net+0x93/0x150
+     [&lt;ffffffff82236cc2&gt;] copy_net_ns+0x82/0x140
+     [&lt;ffffffff810ab13d&gt;] create_new_namespaces+0xfd/0x190
+     [&lt;ffffffff810ab49a&gt;] unshare_nsproxy_namespaces+0x5a/0xc0
+     [&lt;ffffffff810833e3&gt;] SyS_unshare+0x173/0x310
+     [&lt;ffffffff8265cbd7&gt;] system_call_fastpath+0x12/0x6f
+     [&lt;ffffffffffffffff&gt;] 0xffffffffffffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From: "Martin, Chen" &lt;haochuan.z.chen@intel.com&gt;
+ 1, fix improper call of part_round_stats and part_inc_in_flight
+ in drbd_req.c, as CONFIG_BLK_DEV_DRBD=m defined in
+ kernel-3.10.0-x86_64.config.tis_extra
+ 2, add explicit declaration for trace_bpf_int_jit_compile,
+ trace_bpf_jit_compile, trace_bpf_jit_free, if pmd_read_atomic not
+ defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From: Bart Wensley &lt;barton.wensley@windriver.com&gt;
+</t>
+  </si>
+  <si>
+    <t>1.From Chris Friesen &lt;chris.friesen@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <t>1. From: Dahir Osman &lt;dahir.osman@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.From: Chris Friesen &lt;chris.friesen@windriver.com&gt; starlingx project member
+2. this is based off of Christoph Lameter's patch at
+https://lwn.net/Articles/565932/ with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the only difference being the kernel parameter changed from kthread to kthread_cpus.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.StarlingX fix issue</t>
+    </r>
+  </si>
+  <si>
+    <t>1. From: Matt Peters &lt;matt.peters@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <r>
+      <t>1. From: Chris Friesen &lt;chris.friesen@windriver.com&gt;
+starlingx project member
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We also use the kthread_cpus value to determine the default irq
+ affinity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Depend on:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://opendev.org/starlingx/integ/src/branch/master/kernel/kernel-std/centos/patches/affine-compute-kernel-threads.patch
+4.StarlingX fix issue</t>
+    </r>
+  </si>
+  <si>
+    <t>1. From: Chris Friesen &lt;chris.friesen@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <t>1 From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <t>1. From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
+    <t>1. From: Jim Somerville &lt;Jim.Somerville@windriver.com&gt;
+starlingx project member
+2.StarlingX fix issue</t>
+  </si>
+  <si>
     <r>
       <t>1.</t>
     </r>
@@ -13389,68 +13569,68 @@
         <scheme val="minor"/>
       </rPr>
       <t>: intel_cacheinfo.c, cacheinfo.c and cacheinfo.h.
-2.All files are fixed in v4.18.</t>
+2.All patch files have fixed in v4.18.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
- Normally (if trusted integrity keyring is disabled), the _ima keyring
- needs to be created by user space (specifically systemd), but that has
- the added disadvantage of requiring the IMA public key to reside on the
- file system as opposed to being compiled in. Somebody could render some
- serious Grade A damage by corrupting this public key on the FS.
- Crippling the system if IMA 'enforce' action is enabled.
- We will therefore create the IMA keyring inside the kernel and load the
- IMA public key as a compiled data blob, similar to how the Kernel loads
- trusted X509 keys into the system truststore (.system_keyring)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> From: Jim Somerville &lt;Jim.Somerville@windriver.com&gt;
+    <r>
+      <t xml:space="preserve">1. From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: only rh7-3.10.0-693.17.1.el7-based kernels are affected. I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.
+but v4.18 is not from rh7-3.10.0-693.17.1.vz7.43.1.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> From: Konstantin Khlebnikov &lt;koct9i@gmail.com&gt;
- This fixes use-after-free of epi-&gt;fllink.next inside list loop macro.
- This loop actually releases elements in the body.  The list is
- rcu-protected but here we cannot hold rcu_read_lock because we need to
- lock mutex inside.
-  The obvious solution is to use list_for_each_entry_safe().  RCU-ness
- isn't essential because nobody can change this list under us, it's final
- fput for this file.
- The bug was introduced by ae10b2b4eb01 ("epoll: optimize EPOLL_CTL_DEL
- using rcu")</t>
-  </si>
-  <si>
-    <t>1. From: Konstantin Khlebnikov &lt;koct9i@gmail.com&gt;
-2.All files are fixed in v4.18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> From: Tommi Rantala &lt;tt.rantala@gmail.com&gt;
- Fix memory leak introduced in commit a0840e2e165a ("IPVS: netns,
- ip_vs_ctl local vars moved to ipvs struct."):
- unreferenced object 0xffff88005785b800 (size 2048):
-   comm "(-localed)", pid 1434, jiffies 4294755650 (age 1421.089s)
-   hex dump (first 32 bytes):
-     bb 89 0b 83 ff ff ff ff b0 78 f0 4e 00 88 ff ff  .........x.N....
-     04 00 00 00 a4 01 00 00 00 00 00 00 00 00 00 00  ................
-   backtrace:
-    [&lt;ffffffff8262ea8e&gt;] kmemleak_alloc+0x4e/0xb0
-     [&lt;ffffffff811fba74&gt;] __kmalloc_track_caller+0x244/0x430
-     [&lt;ffffffff811b88a0&gt;] kmemdup+0x20/0x50
-     [&lt;ffffffff823276b7&gt;] ip_vs_control_net_init+0x1f7/0x510
-     [&lt;ffffffff8231d630&gt;] __ip_vs_init+0x100/0x250
-     [&lt;ffffffff822363a1&gt;] ops_init+0x41/0x190
-     [&lt;ffffffff82236583&gt;] setup_net+0x93/0x150
-     [&lt;ffffffff82236cc2&gt;] copy_net_ns+0x82/0x140
-     [&lt;ffffffff810ab13d&gt;] create_new_namespaces+0xfd/0x190
-     [&lt;ffffffff810ab49a&gt;] unshare_nsproxy_namespaces+0x5a/0xc0
-     [&lt;ffffffff810833e3&gt;] SyS_unshare+0x173/0x310
-     [&lt;ffffffff8265cbd7&gt;] system_call_fastpath+0x12/0x6f
-     [&lt;ffffffffffffffff&gt;] 0xffffffffffffffff</t>
-  </si>
-  <si>
-    <t>1. From: Tommi Rantala &lt;tt.rantala@gmail.com&gt;
-2.All files are fixed in v4.18.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.fs/ext4/acl.c,ext4_acl_chmod() function does not exist.
+4. In scope of https://jira.sw.ru/browse/PSBM-81384
+RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
+2. Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">only rh7-3.10.0-693.17.1.el7-based kernels are affected. I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.
+but v4.18 is not from rh7-3.10.0-693.17.1.vz7.43.1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.fs/ext4/acl.c,ext4_xattr_set_acl() function does not exist.
+4.In scope of https://jira.sw.ru/browse/PSBM-81384
+ RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
+    </r>
   </si>
   <si>
     <r>
@@ -13477,50 +13657,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.
- Posix acl is used to convert of an extended attribute, provided by user to ext4
- attributes. In particular to i_mode in case of ACL_TYPE_ACCESS request.
- IOW, this object is allocated, used for convertion, not stored anywhere and
- must be freed.
- However posix_acl_update_mode() can zerofy the pointer to support
- ext4_set_acl() logic, but then the object is leaked.  So, fix it by releasing
- new temporary pointer with the same value instead of acl pointer.
- In scope of https://jira.sw.ru/browse/PSBM-81384
- RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> From: "Martin, Chen" &lt;haochuan.z.chen@intel.com&gt;
- 1, fix improper call of part_round_stats and part_inc_in_flight
- in drbd_req.c, as CONFIG_BLK_DEV_DRBD=m defined in
- kernel-3.10.0-x86_64.config.tis_extra
- 2, add explicit declaration for trace_bpf_int_jit_compile,
- trace_bpf_jit_compile, trace_bpf_jit_free, if pmd_read_atomic not
- defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> From: Bart Wensley &lt;barton.wensley@windriver.com&gt;
-</t>
-  </si>
-  <si>
-    <t>1. From: Bart Wensley &lt;barton.wensley@windriver.com&gt;
-2.All files are fixed in v4.18.</t>
-  </si>
-  <si>
-    <t>1.From Chris Friesen &lt;chris.friesen@windriver.com&gt;
-2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <t>1. From: Dahir Osman &lt;dahir.osman@windriver.com&gt;
-starlingx member
-2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. From: Chris Friesen &lt;chris.friesen@windriver.com&gt;
-starlingx member
-2.We also use the kthread_cpus value to determine the default irq
- affinity
 </t>
     </r>
     <r>
@@ -13531,7 +13667,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.Depend on:</t>
+      <t xml:space="preserve"> I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.</t>
     </r>
     <r>
       <rPr>
@@ -13543,28 +13679,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://opendev.org/starlingx/integ/src/branch/master/kernel/kernel-std/centos/patches/affine-compute-kernel-threads.patch</t>
+ Posix acl is used to convert of an extended attribute, provided by user to ext4
+ attributes. In particular to i_mode in case of ACL_TYPE_ACCESS request.
+ IOW, this object is allocated, used for convertion, not stored anywhere and
+ must be freed.
+ However posix_acl_update_mode() can zerofy the pointer to support
+ ext4_set_acl() logic, but then the object is leaked.  So, fix it by releasing
+ new temporary pointer with the same value instead of acl pointer.
+ In scope of https://jira.sw.ru/browse/PSBM-81384
+ RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
     </r>
-  </si>
-  <si>
-    <t>1. From: Matt Peters &lt;matt.peters@windriver.com&gt;
-starlingx member
-2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <t>1 From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
-starlingx member
-2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <t>1. From: Kam Nasim &lt;kam.nasim@windriver.com&gt;
-starlingx member
-2.StarlingX fix issue</t>
-  </si>
-  <si>
-    <t>1. From: Jim Somerville &lt;Jim.Somerville@windriver.com&gt;
-starlingx member
-2.StarlingX fix issue</t>
   </si>
   <si>
     <r>
@@ -13592,23 +13716,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.
- Posix acl is used to convert of an extended attribute, provided by user to ext4
- attributes. In particular to i_mode in case of ACL_TYPE_ACCESS request.
- IOW, this object is allocated, used for convertion, not stored anywhere and
- must be freed.
- However posix_acl_update_mode() can zerofy the pointer to support
- ext4_set_acl() logic, but then the object is leaked.  So, fix it by releasing
- new temporary pointer with the same value instead of acl pointer.
- In scope of https://jira.sw.ru/browse/PSBM-81384
- RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.From: Chris Friesen &lt;chris.friesen@windriver.com&gt; starlingx member
-2. this is based off of Christoph Lameter's patch at
-https://lwn.net/Articles/565932/ with </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -13618,33 +13726,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">the only difference being the kernel parameter changed from kthread to kthread_cpus.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.StarlingX fix issue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note: only rh7-3.10.0-693.17.1.el7-based kernels are affected.</t>
+      <t xml:space="preserve"> I.e. starting from rh7-3.10.0-693.17.1.vz7.43.1.</t>
     </r>
     <r>
       <rPr>
@@ -13656,13 +13738,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3.fs/ext4/acl.c,ext4_acl_chmod() function does not exist.</t>
+ Posix acl is used to convert of an extended attribute, provided by user to ext4
+ attributes. In particular to i_mode in case of ACL_TYPE_ACCESS request.
+ IOW, this object is allocated, used for convertion, not stored anywhere and
+ must be freed.
+ However posix_acl_update_mode() can zerofy the pointer to support
+ ext4_set_acl() logic, but then the object is leaked.  So, fix it by releasing
+ new temporary pointer with the same value instead of acl pointer.
+ In scope of https://jira.sw.ru/browse/PSBM-81384
+ RHEL bug URL: https://bugzilla.redhat.com/show_bug.cgi?id=1543020</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.From: Stanislav Kinsburskiy &lt;skinsbursky@virtuozzo.com&gt;
-2. Note: </t>
+      <t>1. From: Konstantin Khlebnikov &lt;koct9i@gmail.com&gt;
+2.</t>
     </r>
     <r>
       <rPr>
@@ -13672,22 +13762,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">only rh7-3.10.0-693.17.1.el7-based kernels are affected.
-</t>
+      <t>All patch files have fixed in v4.18.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. From: Tommi Rantala &lt;tt.rantala@gmail.com&gt;
+2.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.fs/ext4/acl.c,ext4_xattr_set_acl() function does not exist.</t>
+      <t>All patch files have fixed in v4.18.</t>
     </r>
   </si>
   <si>
-    <t>1.v4.18 /drivers/block/drbd/drbd_req.c generic_start_io_acct() function fixes this patch.
+    <r>
+      <t xml:space="preserve">1.v4.18 /drivers/block/drbd/drbd_req.c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generic_start_io_acct() function has fixed this patch.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2.generic_start_io_acct function file locates in /block/bio.c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. From: Bart Wensley &lt;barton.wensley@windriver.com&gt;
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.All patch files have fixed in v4.18.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14581,9 +14716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -14640,6 +14772,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14959,46 +15094,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>3686</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="102"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>2845</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="105" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="110"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="107"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="108"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="20">
@@ -28515,46 +28650,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" ht="14.4">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>3687</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="102"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="2:5" ht="14.4">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>2845</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="105" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.4">
-      <c r="B6" s="110"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="107"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="108"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="30">
@@ -42743,46 +42878,46 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" ht="14.4">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>2846</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>2841</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>3688</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="102"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="2:5" ht="14.4">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>2842</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>2848</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="105" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.4">
-      <c r="B6" s="110"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="107"/>
+      <c r="E6" s="106"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="108"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="30">
@@ -43837,7 +43972,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43860,7 +43995,7 @@
       <c r="D2" s="36" t="s">
         <v>3558</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="113" t="s">
         <v>3804</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -43872,14 +44007,14 @@
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1"/>
     <row r="4" spans="2:7">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>3561</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="74"/>
@@ -43921,7 +44056,7 @@
         <v>3803</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="G7" s="76" t="s">
         <v>3689</v>
@@ -43959,7 +44094,7 @@
         <v>3802</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="G9" s="76" t="s">
         <v>3689</v>
@@ -43979,13 +44114,13 @@
         <v>3806</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>3831</v>
+        <v>3820</v>
       </c>
       <c r="G10" s="76" t="s">
         <v>3689</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="158.4">
+    <row r="11" spans="2:7" ht="172.8">
       <c r="B11" s="77" t="s">
         <v>3568</v>
       </c>
@@ -43999,13 +44134,13 @@
         <v>3807</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="G11" s="76" t="s">
         <v>3689</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="158.4">
+    <row r="12" spans="2:7" ht="72">
       <c r="B12" s="77" t="s">
         <v>3569</v>
       </c>
@@ -44019,7 +44154,7 @@
         <v>3808</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="G12" s="76" t="s">
         <v>3689</v>
@@ -44039,7 +44174,7 @@
         <v>3809</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>3826</v>
+        <v>3821</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>3689</v>
@@ -44185,7 +44320,7 @@
         <v>3810</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>3812</v>
+        <v>3827</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>3689</v>
@@ -44295,7 +44430,7 @@
         <v>3811</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="G27" s="76" t="s">
         <v>3689</v>
@@ -44312,10 +44447,10 @@
         <v>2862</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="F28" s="94" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="G28" s="76" t="s">
         <v>3689</v>
@@ -44368,10 +44503,10 @@
         <v>2897</v>
       </c>
       <c r="E31" s="92" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
       <c r="G31" s="76" t="s">
         <v>3689</v>
@@ -44388,10 +44523,10 @@
         <v>3801</v>
       </c>
       <c r="E32" s="90" t="s">
-        <v>3815</v>
-      </c>
-      <c r="F32" s="95" t="s">
-        <v>3816</v>
+        <v>3814</v>
+      </c>
+      <c r="F32" s="114" t="s">
+        <v>3832</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>3689</v>
@@ -44401,17 +44536,17 @@
       <c r="B33" s="77" t="s">
         <v>3797</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="95" t="s">
         <v>3563</v>
       </c>
       <c r="D33" s="68" t="s">
         <v>3801</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>3818</v>
+        <v>3833</v>
       </c>
       <c r="G33" s="76" t="s">
         <v>3689</v>
@@ -44421,37 +44556,37 @@
       <c r="B34" s="77" t="s">
         <v>3798</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="95" t="s">
         <v>3563</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>3801</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>3689</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="201.6">
+    <row r="35" spans="2:7" ht="230.4">
       <c r="B35" s="77" t="s">
         <v>3799</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="95" t="s">
         <v>3563</v>
       </c>
       <c r="D35" s="68" t="s">
         <v>3801</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>3819</v>
+        <v>3830</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
       <c r="G35" s="76" t="s">
         <v>3689</v>
@@ -44461,7 +44596,7 @@
       <c r="B36" s="77" t="s">
         <v>3585</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="95" t="s">
         <v>3563</v>
       </c>
       <c r="D36" s="68" t="s">
@@ -44486,7 +44621,7 @@
         <v>3801</v>
       </c>
       <c r="E37" s="92" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
       <c r="F37" s="94" t="s">
         <v>3834</v>
@@ -44499,17 +44634,17 @@
       <c r="B38" s="77" t="s">
         <v>3800</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="95" t="s">
         <v>3563</v>
       </c>
       <c r="D38" s="68" t="s">
         <v>3801</v>
       </c>
       <c r="E38" s="92" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>3822</v>
+        <v>3835</v>
       </c>
       <c r="G38" s="76" t="s">
         <v>3689</v>
